--- a/deployment/Omaha_Cal_Info_CP03ISSM_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP03ISSM_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="810" yWindow="990" windowWidth="20730" windowHeight="11760" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="810" yWindow="990" windowWidth="20730" windowHeight="11760" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="ACS159_CC_taarray" sheetId="5" r:id="rId5"/>
     <sheet name="ACS159_CC_tcarray" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="237">
   <si>
     <t>Ref Des</t>
   </si>
@@ -662,9 +667,6 @@
     </r>
   </si>
   <si>
-    <t>CP01CNSM-MFD37-07-ZPLSCC000</t>
-  </si>
-  <si>
     <t>CP03ISSM-00001-SBD12-HYDGN</t>
   </si>
   <si>
@@ -754,6 +756,45 @@
   <si>
     <t>N00755</t>
   </si>
+  <si>
+    <t>OL000563</t>
+  </si>
+  <si>
+    <t>OL000564</t>
+  </si>
+  <si>
+    <t>OL000565</t>
+  </si>
+  <si>
+    <t>OL000566</t>
+  </si>
+  <si>
+    <t>OL000567</t>
+  </si>
+  <si>
+    <t>OL000568</t>
+  </si>
+  <si>
+    <t>OL000569</t>
+  </si>
+  <si>
+    <t>OL000570</t>
+  </si>
+  <si>
+    <t>OL000571</t>
+  </si>
+  <si>
+    <t>OL000572</t>
+  </si>
+  <si>
+    <t>OL000573</t>
+  </si>
+  <si>
+    <t>OL000574</t>
+  </si>
+  <si>
+    <t>CP03ISSM-MFD37-07-ZPLSCC000</t>
+  </si>
 </sst>
 </file>
 
@@ -762,7 +803,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -838,6 +879,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -985,9 +1032,6 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1018,6 +1062,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1449,11 +1496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="10"/>
@@ -1469,47 +1516,47 @@
     <col min="13" max="1026" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>201</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>202</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>11</v>
@@ -1530,10 +1577,10 @@
         <v>42003</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="J2" s="8">
         <v>94</v>
@@ -1544,8 +1591,14 @@
       <c r="L2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="M2" s="30">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>40.362216666666669</v>
+      </c>
+      <c r="N2" s="30">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.878616666666673</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1562,58 +1615,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E15"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="20" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="55.7109375" style="20" customWidth="1"/>
-    <col min="10" max="1027" width="8.85546875" style="20"/>
+    <col min="1" max="1" width="27.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="19" customWidth="1"/>
+    <col min="10" max="1027" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="30" customFormat="1" ht="25.5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:1026" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -2639,25 +2692,28 @@
       <c r="AMK2"/>
       <c r="AML2"/>
     </row>
-    <row r="3" spans="1:1026">
-      <c r="A3" s="20" t="s">
-        <v>200</v>
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J3"/>
@@ -3678,12 +3734,16 @@
       <c r="AMK3"/>
       <c r="AML3"/>
     </row>
-    <row r="5" spans="1:1026" s="6" customFormat="1">
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="K4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:1026" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -3691,37 +3751,45 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="22" t="s">
-        <v>196</v>
+      <c r="E5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
+      <c r="K5"/>
+      <c r="P5"/>
     </row>
-    <row r="7" spans="1:1026">
-      <c r="A7" s="20" t="s">
+    <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="K6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>40.362341666666701</v>
       </c>
       <c r="I7"/>
@@ -4743,29 +4811,29 @@
       <c r="AMK7"/>
       <c r="AML7"/>
     </row>
-    <row r="8" spans="1:1026">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>-70.878614999999996</v>
       </c>
       <c r="I8"/>
@@ -5787,29 +5855,29 @@
       <c r="AMK8"/>
       <c r="AML8"/>
     </row>
-    <row r="9" spans="1:1026">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>1.0668</v>
       </c>
       <c r="I9"/>
@@ -6831,29 +6899,29 @@
       <c r="AMK9"/>
       <c r="AML9"/>
     </row>
-    <row r="10" spans="1:1026">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>4.2926000000000002</v>
       </c>
       <c r="I10"/>
@@ -7875,29 +7943,29 @@
       <c r="AMK10"/>
       <c r="AML10"/>
     </row>
-    <row r="11" spans="1:1026">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>4.2926000000000002</v>
       </c>
       <c r="I11"/>
@@ -8919,29 +8987,29 @@
       <c r="AMK11"/>
       <c r="AML11"/>
     </row>
-    <row r="12" spans="1:1026">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F12" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>4.7497999999999996</v>
       </c>
       <c r="I12"/>
@@ -9963,36 +10031,36 @@
       <c r="AMK12"/>
       <c r="AML12"/>
     </row>
-    <row r="13" spans="1:1026">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>1</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
@@ -11011,32 +11079,32 @@
       <c r="AMK13"/>
       <c r="AML13"/>
     </row>
-    <row r="14" spans="1:1026">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>1</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>29</v>
       </c>
       <c r="J14"/>
@@ -12057,32 +12125,32 @@
       <c r="AMK14"/>
       <c r="AML14"/>
     </row>
-    <row r="15" spans="1:1026">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>600</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="19" t="s">
         <v>29</v>
       </c>
       <c r="K15"/>
@@ -13102,7 +13170,7 @@
       <c r="AMK15"/>
       <c r="AML15"/>
     </row>
-    <row r="16" spans="1:1026">
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -14129,12 +14197,12 @@
       <c r="AMK16"/>
       <c r="AML16"/>
     </row>
-    <row r="17" spans="1:1026" s="6" customFormat="1">
+    <row r="17" spans="1:1026" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -14142,36 +14210,44 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="22" t="s">
-        <v>195</v>
+      <c r="E17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
+      <c r="K17"/>
+      <c r="P17"/>
     </row>
-    <row r="19" spans="1:1026">
-      <c r="A19" s="20" t="s">
+    <row r="18" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="K18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>34</v>
       </c>
       <c r="K19"/>
@@ -15191,7 +15267,7 @@
       <c r="AMK19"/>
       <c r="AML19"/>
     </row>
-    <row r="20" spans="1:1026">
+    <row r="20" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -16218,29 +16294,29 @@
       <c r="AMK20"/>
       <c r="AML20"/>
     </row>
-    <row r="21" spans="1:1026">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>40.362341666666701</v>
       </c>
       <c r="I21"/>
@@ -17261,29 +17337,29 @@
       <c r="AMK21"/>
       <c r="AML21"/>
     </row>
-    <row r="22" spans="1:1026">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>-70.878614999999996</v>
       </c>
       <c r="I22"/>
@@ -18304,7 +18380,7 @@
       <c r="AMK22"/>
       <c r="AML22"/>
     </row>
-    <row r="23" spans="1:1026">
+    <row r="23" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -19331,29 +19407,29 @@
       <c r="AMK23"/>
       <c r="AML23"/>
     </row>
-    <row r="24" spans="1:1026">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>40.362341666666701</v>
       </c>
       <c r="I24"/>
@@ -20374,29 +20450,29 @@
       <c r="AMK24"/>
       <c r="AML24"/>
     </row>
-    <row r="25" spans="1:1026">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F25" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>-70.878614999999996</v>
       </c>
       <c r="I25"/>
@@ -21417,7 +21493,7 @@
       <c r="AMK25"/>
       <c r="AML25"/>
     </row>
-    <row r="26" spans="1:1026">
+    <row r="26" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -22444,29 +22520,29 @@
       <c r="AMK26"/>
       <c r="AML26"/>
     </row>
-    <row r="27" spans="1:1026">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>17533</v>
       </c>
       <c r="I27"/>
@@ -23487,29 +23563,29 @@
       <c r="AMK27"/>
       <c r="AML27"/>
     </row>
-    <row r="28" spans="1:1026">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>101</v>
       </c>
       <c r="I28"/>
@@ -24530,29 +24606,29 @@
       <c r="AMK28"/>
       <c r="AML28"/>
     </row>
-    <row r="29" spans="1:1026">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
-      </c>
-      <c r="F29" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>2229</v>
       </c>
       <c r="I29"/>
@@ -25573,29 +25649,29 @@
       <c r="AMK29"/>
       <c r="AML29"/>
     </row>
-    <row r="30" spans="1:1026">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>220</v>
-      </c>
-      <c r="F30" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <v>38502</v>
       </c>
       <c r="I30"/>
@@ -26617,29 +26693,29 @@
       <c r="AMK30"/>
       <c r="AML30"/>
     </row>
-    <row r="31" spans="1:1026">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C31" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
-      </c>
-      <c r="F31" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="23">
         <v>0</v>
       </c>
       <c r="I31"/>
@@ -27661,29 +27737,29 @@
       <c r="AMK31"/>
       <c r="AML31"/>
     </row>
-    <row r="32" spans="1:1026">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="23">
         <v>1</v>
       </c>
       <c r="I32"/>
@@ -28705,32 +28781,32 @@
       <c r="AMK32"/>
       <c r="AML32"/>
     </row>
-    <row r="33" spans="1:1026">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F33" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="19">
         <v>35</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="19" t="s">
         <v>29</v>
       </c>
       <c r="J33"/>
@@ -29751,7 +29827,7 @@
       <c r="AMK33"/>
       <c r="AML33"/>
     </row>
-    <row r="34" spans="1:1026">
+    <row r="34" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -30779,29 +30855,29 @@
       <c r="AMK34"/>
       <c r="AML34"/>
     </row>
-    <row r="35" spans="1:1026">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
-      </c>
-      <c r="F35" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <v>17533</v>
       </c>
       <c r="I35"/>
@@ -31823,29 +31899,29 @@
       <c r="AMK35"/>
       <c r="AML35"/>
     </row>
-    <row r="36" spans="1:1026">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <v>101</v>
       </c>
       <c r="I36"/>
@@ -32867,29 +32943,29 @@
       <c r="AMK36"/>
       <c r="AML36"/>
     </row>
-    <row r="37" spans="1:1026">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="19">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="19">
         <v>2229</v>
       </c>
       <c r="I37"/>
@@ -33911,29 +33987,29 @@
       <c r="AMK37"/>
       <c r="AML37"/>
     </row>
-    <row r="38" spans="1:1026">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="19">
         <v>38502</v>
       </c>
       <c r="I38"/>
@@ -34954,29 +35030,29 @@
       <c r="AMK38"/>
       <c r="AML38"/>
     </row>
-    <row r="39" spans="1:1026">
-      <c r="A39" s="20" t="s">
+    <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="23">
         <v>0</v>
       </c>
       <c r="I39"/>
@@ -35997,29 +36073,29 @@
       <c r="AMK39"/>
       <c r="AML39"/>
     </row>
-    <row r="40" spans="1:1026">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>219</v>
-      </c>
-      <c r="F40" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <v>1</v>
       </c>
       <c r="I40"/>
@@ -37040,32 +37116,32 @@
       <c r="AMK40"/>
       <c r="AML40"/>
     </row>
-    <row r="41" spans="1:1026">
-      <c r="A41" s="20" t="s">
+    <row r="41" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="19">
         <v>35</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>29</v>
       </c>
       <c r="K41"/>
@@ -38085,7 +38161,7 @@
       <c r="AMK41"/>
       <c r="AML41"/>
     </row>
-    <row r="42" spans="1:1026">
+    <row r="42" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -39112,29 +39188,29 @@
       <c r="AMK42"/>
       <c r="AML42"/>
     </row>
-    <row r="43" spans="1:1026">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="19">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F43" t="s">
-        <v>217</v>
-      </c>
-      <c r="G43" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="19" t="s">
         <v>52</v>
       </c>
       <c r="I43"/>
@@ -40155,29 +40231,29 @@
       <c r="AMK43"/>
       <c r="AML43"/>
     </row>
-    <row r="44" spans="1:1026">
-      <c r="A44" s="20" t="s">
+    <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="19">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>217</v>
-      </c>
-      <c r="G44" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="19" t="s">
         <v>54</v>
       </c>
       <c r="I44"/>
@@ -41198,29 +41274,29 @@
       <c r="AMK44"/>
       <c r="AML44"/>
     </row>
-    <row r="45" spans="1:1026">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="19">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="19">
         <v>20.9</v>
       </c>
       <c r="I45"/>
@@ -42241,29 +42317,29 @@
       <c r="AMK45"/>
       <c r="AML45"/>
     </row>
-    <row r="46" spans="1:1026">
-      <c r="A46" s="20" t="s">
+    <row r="46" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="19">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
-      </c>
-      <c r="G46" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="H46" s="19" t="s">
         <v>57</v>
       </c>
       <c r="I46"/>
@@ -43284,29 +43360,29 @@
       <c r="AMK46"/>
       <c r="AML46"/>
     </row>
-    <row r="47" spans="1:1026">
-      <c r="A47" s="20" t="s">
+    <row r="47" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="19">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
-      </c>
-      <c r="G47" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="19" t="s">
         <v>59</v>
       </c>
       <c r="I47"/>
@@ -44327,29 +44403,29 @@
       <c r="AMK47"/>
       <c r="AML47"/>
     </row>
-    <row r="48" spans="1:1026">
-      <c r="A48" s="20" t="s">
+    <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="19">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="19" t="s">
         <v>61</v>
       </c>
       <c r="I48"/>
@@ -45370,29 +45446,29 @@
       <c r="AMK48"/>
       <c r="AML48"/>
     </row>
-    <row r="49" spans="1:1026">
-      <c r="A49" s="20" t="s">
+    <row r="49" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="19">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H49" s="19" t="s">
         <v>63</v>
       </c>
       <c r="I49"/>
@@ -46413,33 +46489,34 @@
       <c r="AMK49"/>
       <c r="AML49"/>
     </row>
-    <row r="50" spans="1:1026" s="25" customFormat="1">
-      <c r="A50" s="25" t="s">
+    <row r="50" spans="1:1026" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
-      </c>
-      <c r="C50" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="24">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F50" t="s">
-        <v>217</v>
-      </c>
-      <c r="G50" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="24" t="s">
         <v>65</v>
       </c>
+      <c r="K50"/>
     </row>
-    <row r="51" spans="1:1026">
+    <row r="51" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -46449,224 +46526,233 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
+      <c r="K51"/>
     </row>
-    <row r="52" spans="1:1026">
-      <c r="A52" s="20" t="s">
+    <row r="52" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F52" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="19">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>215</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52"/>
+      <c r="F53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53"/>
+      <c r="K53"/>
     </row>
-    <row r="53" spans="1:1026">
-      <c r="A53" s="20" t="s">
+    <row r="54" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B53" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" s="20" t="s">
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D54" s="19">
         <v>1</v>
       </c>
-      <c r="E53" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E54" t="s">
         <v>215</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I53"/>
+      <c r="F54" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I54"/>
+      <c r="K54"/>
     </row>
-    <row r="54" spans="1:1026">
-      <c r="A54" s="20" t="s">
+    <row r="55" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B54" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="20" t="s">
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D55" s="19">
         <v>1</v>
       </c>
-      <c r="E54" t="s">
-        <v>216</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E55" t="s">
         <v>215</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="20">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I54"/>
+      <c r="F55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55"/>
+      <c r="K55"/>
     </row>
-    <row r="55" spans="1:1026">
-      <c r="A55" s="20" t="s">
+    <row r="56" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B55" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="20" t="s">
+      <c r="B56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D56" s="19">
         <v>1</v>
       </c>
-      <c r="E55" t="s">
-        <v>216</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E56" t="s">
         <v>215</v>
       </c>
-      <c r="G55" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I55"/>
+      <c r="F56" t="s">
+        <v>214</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56"/>
+      <c r="K56"/>
     </row>
-    <row r="56" spans="1:1026">
-      <c r="A56" s="20" t="s">
+    <row r="57" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C56" s="20" t="s">
+      <c r="B57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="19">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E57" t="s">
         <v>215</v>
       </c>
-      <c r="G56" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56"/>
+      <c r="F57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57"/>
+      <c r="K57"/>
     </row>
-    <row r="57" spans="1:1026">
-      <c r="A57" s="20" t="s">
+    <row r="58" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B57" t="s">
-        <v>202</v>
-      </c>
-      <c r="C57" s="20" t="s">
+      <c r="B58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D58" s="19">
         <v>1</v>
       </c>
-      <c r="E57" t="s">
-        <v>216</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E58" t="s">
         <v>215</v>
       </c>
-      <c r="G57" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I57"/>
+      <c r="F58" t="s">
+        <v>214</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58"/>
+      <c r="K58"/>
     </row>
-    <row r="58" spans="1:1026">
-      <c r="A58" s="20" t="s">
+    <row r="59" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B58" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="20" t="s">
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D59" s="19">
         <v>1</v>
       </c>
-      <c r="E58" t="s">
-        <v>216</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E59" t="s">
         <v>215</v>
       </c>
-      <c r="G58" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I58"/>
+      <c r="F59" t="s">
+        <v>214</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59"/>
+      <c r="K59"/>
     </row>
-    <row r="59" spans="1:1026">
-      <c r="A59" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" t="s">
-        <v>202</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="20">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>216</v>
-      </c>
-      <c r="F59" t="s">
-        <v>215</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I59"/>
-    </row>
-    <row r="60" spans="1:1026">
+    <row r="60" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -46676,286 +46762,297 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
+      <c r="K60"/>
     </row>
-    <row r="61" spans="1:1026">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="19">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
-      </c>
-      <c r="F61" s="20">
+        <v>213</v>
+      </c>
+      <c r="F61" s="19">
         <v>1106</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="19">
         <v>51</v>
       </c>
       <c r="I61"/>
+      <c r="K61"/>
     </row>
-    <row r="62" spans="1:1026">
-      <c r="A62" s="20" t="s">
+    <row r="62" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="19">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" s="20">
+        <v>213</v>
+      </c>
+      <c r="F62" s="19">
         <v>1106</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="19">
         <v>1.6959999999999999E-6</v>
       </c>
       <c r="I62"/>
+      <c r="K62"/>
     </row>
-    <row r="63" spans="1:1026">
-      <c r="A63" s="20" t="s">
+    <row r="63" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="19">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
-      </c>
-      <c r="F63" s="20">
+        <v>213</v>
+      </c>
+      <c r="F63" s="19">
         <v>1106</v>
       </c>
-      <c r="G63" s="20" t="s">
+      <c r="G63" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="19">
         <v>56</v>
       </c>
       <c r="I63"/>
+      <c r="K63"/>
     </row>
-    <row r="64" spans="1:1026">
-      <c r="A64" s="20" t="s">
+    <row r="64" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
-      </c>
-      <c r="C64" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="19">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
-      </c>
-      <c r="F64" s="20">
+        <v>213</v>
+      </c>
+      <c r="F64" s="19">
         <v>1106</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="19">
         <v>1.21E-2</v>
       </c>
       <c r="I64"/>
+      <c r="K64"/>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="20" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="19">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
-      </c>
-      <c r="F65" s="20">
+        <v>213</v>
+      </c>
+      <c r="F65" s="19">
         <v>1106</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="19">
         <v>49</v>
       </c>
       <c r="I65"/>
+      <c r="K65"/>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="20" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="19">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
-      </c>
-      <c r="F66" s="20">
+        <v>213</v>
+      </c>
+      <c r="F66" s="19">
         <v>1106</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="19">
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="I66"/>
+      <c r="K66"/>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="20" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="19">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" s="20">
+        <v>213</v>
+      </c>
+      <c r="F67" s="19">
         <v>1106</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="19" t="s">
         <v>81</v>
       </c>
       <c r="H67" s="2">
         <v>124</v>
       </c>
-      <c r="I67" s="20" t="s">
+      <c r="I67" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K67"/>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="20" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="19">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
-      </c>
-      <c r="F68" s="20">
+        <v>213</v>
+      </c>
+      <c r="F68" s="19">
         <v>1106</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="19">
         <v>700</v>
       </c>
-      <c r="I68" s="20" t="s">
+      <c r="I68" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K68"/>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="20" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="19">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
-      </c>
-      <c r="F69" s="20">
+        <v>213</v>
+      </c>
+      <c r="F69" s="19">
         <v>1106</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="19" t="s">
         <v>83</v>
       </c>
       <c r="H69" s="2">
         <v>1.0760000000000001</v>
       </c>
-      <c r="I69" s="20" t="s">
+      <c r="I69" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K69"/>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="20" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="19">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70" s="20">
+        <v>213</v>
+      </c>
+      <c r="F70" s="19">
         <v>1106</v>
       </c>
-      <c r="G70" s="20" t="s">
+      <c r="G70" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="19">
         <v>3.9E-2</v>
       </c>
-      <c r="I70" s="20" t="s">
+      <c r="I70" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K70"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -46965,656 +47062,681 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
+      <c r="K71"/>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="20" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="19">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F72" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G72" s="20" t="s">
+      <c r="G72" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="19">
         <v>40.362341666666701</v>
       </c>
       <c r="I72"/>
+      <c r="K72"/>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="20" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="19">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
-      </c>
-      <c r="F73" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F73" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="19">
         <v>-70.878614999999996</v>
       </c>
       <c r="I73"/>
+      <c r="K73"/>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="20" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="19">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F74" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="19">
         <v>1.275736E-3</v>
       </c>
       <c r="I74"/>
+      <c r="K74"/>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="20" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="19">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
-      </c>
-      <c r="F75" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>2.687395E-4</v>
       </c>
       <c r="I75"/>
+      <c r="K75"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="20" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="19">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
-      </c>
-      <c r="F76" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F76" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H76" s="19">
         <v>-4.9407139999999997E-7</v>
       </c>
       <c r="I76"/>
+      <c r="K76"/>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="20" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
-      </c>
-      <c r="C77" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="19">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
-      </c>
-      <c r="F77" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F77" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="19">
         <v>1.5714250000000001E-7</v>
       </c>
       <c r="I77"/>
+      <c r="K77"/>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="20" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
-      </c>
-      <c r="C78" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="19">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
-      </c>
-      <c r="F78" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F78" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="G78" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="19">
         <v>-59.860720000000001</v>
       </c>
       <c r="I78"/>
+      <c r="K78"/>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="20" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="19">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
-      </c>
-      <c r="F79" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G79" s="20" t="s">
+      <c r="G79" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="19">
         <v>54.689369999999997</v>
       </c>
       <c r="I79"/>
+      <c r="K79"/>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="20" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="19">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
-      </c>
-      <c r="F80" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F80" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="19">
         <v>-0.59772709999999996</v>
       </c>
       <c r="I80"/>
+      <c r="K80"/>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="20" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
-      </c>
-      <c r="C81" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="19">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
-      </c>
-      <c r="F81" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="19">
         <v>524321.69999999995</v>
       </c>
       <c r="I81"/>
+      <c r="K81"/>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="20" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="19">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>213</v>
-      </c>
-      <c r="F82" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="19">
         <v>4.3960220000000003</v>
       </c>
       <c r="I82"/>
+      <c r="K82"/>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="20" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="19">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>213</v>
-      </c>
-      <c r="F83" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="19">
         <v>-0.18980369999999999</v>
       </c>
       <c r="I83"/>
+      <c r="K83"/>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="20" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
-      </c>
-      <c r="C84" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="19">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
-      </c>
-      <c r="F84" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="19">
         <v>25.0275</v>
       </c>
       <c r="I84"/>
+      <c r="K84"/>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="20" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="19">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
-      </c>
-      <c r="F85" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G85" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H85" s="19">
         <v>-8.9999999999999998E-4</v>
       </c>
       <c r="I85"/>
+      <c r="K85"/>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="20" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
-      </c>
-      <c r="C86" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D86" s="19">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
-      </c>
-      <c r="F86" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G86" s="20" t="s">
+      <c r="G86" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H86" s="20">
+      <c r="H86" s="19">
         <v>0</v>
       </c>
       <c r="I86"/>
+      <c r="K86"/>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="20" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>213</v>
-      </c>
-      <c r="F87" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F87" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G87" s="20" t="s">
+      <c r="G87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H87" s="19">
         <v>4.7931029999999999E-3</v>
       </c>
       <c r="I87"/>
+      <c r="K87"/>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="20" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D88" s="19">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>213</v>
-      </c>
-      <c r="F88" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F88" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G88" s="20" t="s">
+      <c r="G88" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H88" s="20">
+      <c r="H88" s="19">
         <v>4.880347E-4</v>
       </c>
       <c r="I88"/>
+      <c r="K88"/>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="20" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C89" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="19">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>213</v>
-      </c>
-      <c r="F89" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F89" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G89" s="20" t="s">
+      <c r="G89" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H89" s="20">
+      <c r="H89" s="19">
         <v>-5.7918670000000003E-12</v>
       </c>
       <c r="I89"/>
+      <c r="K89"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="20" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
-      </c>
-      <c r="C90" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D90" s="19">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
-      </c>
-      <c r="F90" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="G90" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H90" s="20">
+      <c r="H90" s="19">
         <v>-0.9775528</v>
       </c>
       <c r="I90"/>
+      <c r="K90"/>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="20" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="19">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
-      </c>
-      <c r="F91" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="G91" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H91" s="20">
+      <c r="H91" s="19">
         <v>0.13665949999999999</v>
       </c>
       <c r="I91"/>
+      <c r="K91"/>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="20" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
-      </c>
-      <c r="C92" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="19">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>213</v>
-      </c>
-      <c r="F92" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F92" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G92" s="20" t="s">
+      <c r="G92" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H92" s="20">
+      <c r="H92" s="19">
         <v>-2.227513E-4</v>
       </c>
       <c r="I92"/>
+      <c r="K92"/>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="20" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
-      </c>
-      <c r="C93" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="19">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>213</v>
-      </c>
-      <c r="F93" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F93" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G93" s="20" t="s">
+      <c r="G93" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H93" s="20">
+      <c r="H93" s="19">
         <v>3.482608E-5</v>
       </c>
       <c r="I93"/>
+      <c r="K93"/>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="20" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="19">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>213</v>
-      </c>
-      <c r="F94" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F94" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G94" s="20" t="s">
+      <c r="G94" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="19">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I94"/>
+      <c r="K94"/>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="20" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="19">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
-      </c>
-      <c r="F95" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F95" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G95" s="20" t="s">
+      <c r="G95" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="19">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I95"/>
+      <c r="K95"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -47624,661 +47746,686 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96"/>
+      <c r="K96"/>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="20" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
-      </c>
-      <c r="C97" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="19">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>212</v>
-      </c>
-      <c r="F97" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F97" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G97" s="20" t="s">
+      <c r="G97" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="19">
         <v>40.362341666666701</v>
       </c>
       <c r="I97"/>
+      <c r="K97"/>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="20" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="19">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>212</v>
-      </c>
-      <c r="F98" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F98" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G98" s="20" t="s">
+      <c r="G98" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H98" s="20">
+      <c r="H98" s="19">
         <v>-70.878614999999996</v>
       </c>
       <c r="I98"/>
+      <c r="K98"/>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="20" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
-      </c>
-      <c r="C99" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="19">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>212</v>
-      </c>
-      <c r="F99" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F99" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G99" s="20" t="s">
+      <c r="G99" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H99" s="20">
+      <c r="H99" s="19">
         <v>1.2462179999999999E-3</v>
       </c>
       <c r="I99"/>
+      <c r="K99"/>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="20" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="19">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>212</v>
-      </c>
-      <c r="F100" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F100" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G100" s="20" t="s">
+      <c r="G100" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H100" s="20">
+      <c r="H100" s="19">
         <v>2.7678380000000001E-4</v>
       </c>
       <c r="I100"/>
+      <c r="K100"/>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="20" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
-      </c>
-      <c r="C101" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="19">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>212</v>
-      </c>
-      <c r="F101" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F101" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G101" s="20" t="s">
+      <c r="G101" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H101" s="20">
+      <c r="H101" s="19">
         <v>-1.2985689999999999E-6</v>
       </c>
       <c r="I101"/>
+      <c r="K101"/>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="20" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D102" s="19">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>212</v>
-      </c>
-      <c r="F102" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F102" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G102" s="20" t="s">
+      <c r="G102" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H102" s="20">
+      <c r="H102" s="19">
         <v>1.8894860000000001E-7</v>
       </c>
       <c r="I102"/>
+      <c r="K102"/>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="20" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="20">
+      <c r="D103" s="19">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>212</v>
-      </c>
-      <c r="F103" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F103" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G103" s="20" t="s">
+      <c r="G103" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H103" s="20">
+      <c r="H103" s="19">
         <v>-60.5807</v>
       </c>
       <c r="I103"/>
+      <c r="K103"/>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="20" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="20">
+      <c r="D104" s="19">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>212</v>
-      </c>
-      <c r="F104" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F104" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G104" s="20" t="s">
+      <c r="G104" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H104" s="20">
+      <c r="H104" s="19">
         <v>52.932580000000002</v>
       </c>
       <c r="I104"/>
+      <c r="K104"/>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="20" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D105" s="19">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>212</v>
-      </c>
-      <c r="F105" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F105" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="G105" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H105" s="20">
+      <c r="H105" s="19">
         <v>-0.33026139999999998</v>
       </c>
       <c r="I105"/>
+      <c r="K105"/>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="20" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
-      </c>
-      <c r="C106" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="20">
+      <c r="D106" s="19">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>212</v>
-      </c>
-      <c r="F106" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F106" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G106" s="20" t="s">
+      <c r="G106" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H106" s="20">
+      <c r="H106" s="19">
         <v>524771.30000000005</v>
       </c>
       <c r="I106"/>
+      <c r="K106"/>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="20" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
-      </c>
-      <c r="C107" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D107" s="19">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>212</v>
-      </c>
-      <c r="F107" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F107" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G107" s="20" t="s">
+      <c r="G107" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H107" s="20">
+      <c r="H107" s="19">
         <v>7.7022430000000002</v>
       </c>
       <c r="I107"/>
+      <c r="K107"/>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="20" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
-      </c>
-      <c r="C108" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="20">
+      <c r="D108" s="19">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>212</v>
-      </c>
-      <c r="F108" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F108" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G108" s="20" t="s">
+      <c r="G108" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H108" s="20">
+      <c r="H108" s="19">
         <v>-0.1943513</v>
       </c>
       <c r="I108"/>
+      <c r="K108"/>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="20" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
-      </c>
-      <c r="C109" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="20">
+      <c r="D109" s="19">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>212</v>
-      </c>
-      <c r="F109" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F109" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G109" s="20" t="s">
+      <c r="G109" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H109" s="20">
+      <c r="H109" s="19">
         <v>25.106000000000002</v>
       </c>
       <c r="I109"/>
+      <c r="K109"/>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="20" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
-      </c>
-      <c r="C110" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D110" s="19">
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>212</v>
-      </c>
-      <c r="F110" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G110" s="20" t="s">
+      <c r="G110" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H110" s="20">
+      <c r="H110" s="19">
         <v>-9.9999989999999999E-4</v>
       </c>
       <c r="I110"/>
+      <c r="K110"/>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="20" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
-      </c>
-      <c r="C111" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="20">
+      <c r="D111" s="19">
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>212</v>
-      </c>
-      <c r="F111" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F111" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G111" s="20" t="s">
+      <c r="G111" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H111" s="20">
+      <c r="H111" s="19">
         <v>0</v>
       </c>
       <c r="I111"/>
+      <c r="K111"/>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="20" t="s">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
-      </c>
-      <c r="C112" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="20">
+      <c r="D112" s="19">
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>212</v>
-      </c>
-      <c r="F112" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F112" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G112" s="20" t="s">
+      <c r="G112" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H112" s="20">
+      <c r="H112" s="19">
         <v>0.12014469999999999</v>
       </c>
       <c r="I112"/>
+      <c r="K112"/>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113" s="20" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
-      </c>
-      <c r="C113" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D113" s="19">
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>212</v>
-      </c>
-      <c r="F113" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F113" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G113" s="20" t="s">
+      <c r="G113" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H113" s="20">
+      <c r="H113" s="19">
         <v>1.5407649999999999E-3</v>
       </c>
       <c r="I113"/>
       <c r="J113"/>
+      <c r="K113"/>
     </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="20" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
-      </c>
-      <c r="C114" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D114" s="19">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>212</v>
-      </c>
-      <c r="F114" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F114" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G114" s="20" t="s">
+      <c r="G114" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H114" s="20">
+      <c r="H114" s="19">
         <v>5.3610539999999999E-12</v>
       </c>
       <c r="I114"/>
       <c r="J114"/>
+      <c r="K114"/>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="20" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="20">
+      <c r="D115" s="19">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>212</v>
-      </c>
-      <c r="F115" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F115" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G115" s="20" t="s">
+      <c r="G115" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H115" s="20">
+      <c r="H115" s="19">
         <v>-0.95357239999999999</v>
       </c>
       <c r="I115"/>
       <c r="J115" s="6"/>
+      <c r="K115"/>
     </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="20" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
-      </c>
-      <c r="C116" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="20">
+      <c r="D116" s="19">
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>212</v>
-      </c>
-      <c r="F116" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F116" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G116" s="20" t="s">
+      <c r="G116" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H116" s="20">
+      <c r="H116" s="19">
         <v>0.13362479999999999</v>
       </c>
       <c r="I116"/>
+      <c r="K116"/>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="20" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="20">
+      <c r="D117" s="19">
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>212</v>
-      </c>
-      <c r="F117" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F117" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G117" s="20" t="s">
+      <c r="G117" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H117" s="20">
+      <c r="H117" s="19">
         <v>-3.7835450000000002E-4</v>
       </c>
       <c r="I117"/>
       <c r="J117"/>
+      <c r="K117"/>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="20" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
-      </c>
-      <c r="C118" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="20">
+      <c r="D118" s="19">
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>212</v>
-      </c>
-      <c r="F118" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F118" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G118" s="20" t="s">
+      <c r="G118" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H118" s="20">
+      <c r="H118" s="19">
         <v>4.5128569999999998E-5</v>
       </c>
       <c r="I118"/>
       <c r="J118"/>
+      <c r="K118"/>
     </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="20" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D119" s="19">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>212</v>
-      </c>
-      <c r="F119" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F119" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G119" s="20" t="s">
+      <c r="G119" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H119" s="20">
+      <c r="H119" s="19">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I119"/>
+      <c r="K119"/>
     </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="20" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
-      </c>
-      <c r="C120" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="20">
+      <c r="D120" s="19">
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>212</v>
-      </c>
-      <c r="F120" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F120" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G120" s="20" t="s">
+      <c r="G120" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H120" s="20">
+      <c r="H120" s="19">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I120"/>
+      <c r="K120"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -48288,89 +48435,93 @@
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
+      <c r="K121"/>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="20" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
-      </c>
-      <c r="C122" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D122" s="19">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>211</v>
-      </c>
-      <c r="F122" s="20">
+        <v>210</v>
+      </c>
+      <c r="F122" s="19">
         <v>389</v>
       </c>
-      <c r="G122" s="20" t="s">
+      <c r="G122" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="20">
+      <c r="H122" s="19">
         <v>40.362341666666701</v>
       </c>
       <c r="I122"/>
+      <c r="K122"/>
     </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="20" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
-      </c>
-      <c r="C123" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="20">
+      <c r="D123" s="19">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>211</v>
-      </c>
-      <c r="F123" s="20">
+        <v>210</v>
+      </c>
+      <c r="F123" s="19">
         <v>389</v>
       </c>
-      <c r="G123" s="20" t="s">
+      <c r="G123" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H123" s="20">
+      <c r="H123" s="19">
         <v>-70.878614999999996</v>
       </c>
       <c r="I123"/>
+      <c r="K123"/>
     </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="20" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
-      </c>
-      <c r="C124" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D124" s="19">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>211</v>
-      </c>
-      <c r="F124" s="20">
+        <v>210</v>
+      </c>
+      <c r="F124" s="19">
         <v>389</v>
       </c>
-      <c r="G124" s="20" t="s">
+      <c r="G124" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="H124" s="20" t="s">
+      <c r="H124" s="19" t="s">
         <v>113</v>
       </c>
       <c r="I124"/>
+      <c r="K124"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -48380,89 +48531,93 @@
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
+      <c r="K125"/>
     </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="20" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
-      </c>
-      <c r="C126" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C126" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="20">
+      <c r="D126" s="19">
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>210</v>
-      </c>
-      <c r="F126" s="20">
+        <v>209</v>
+      </c>
+      <c r="F126" s="19">
         <v>390</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G126" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H126" s="20">
+      <c r="H126" s="19">
         <v>40.362341666666701</v>
       </c>
       <c r="I126"/>
+      <c r="K126"/>
     </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="20" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
-      </c>
-      <c r="C127" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="20">
+      <c r="D127" s="19">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>210</v>
-      </c>
-      <c r="F127" s="20">
+        <v>209</v>
+      </c>
+      <c r="F127" s="19">
         <v>390</v>
       </c>
-      <c r="G127" s="20" t="s">
+      <c r="G127" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H127" s="20">
+      <c r="H127" s="19">
         <v>-70.878614999999996</v>
       </c>
       <c r="I127"/>
+      <c r="K127"/>
     </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="20" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
-      </c>
-      <c r="C128" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="20">
+      <c r="D128" s="19">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>210</v>
-      </c>
-      <c r="F128" s="20">
+        <v>209</v>
+      </c>
+      <c r="F128" s="19">
         <v>390</v>
       </c>
-      <c r="G128" s="20" t="s">
+      <c r="G128" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="H128" s="20" t="s">
+      <c r="H128" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I128"/>
+      <c r="K128"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -48472,201 +48627,209 @@
       <c r="G129"/>
       <c r="H129"/>
       <c r="I129"/>
+      <c r="K129"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
-      </c>
-      <c r="C130" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D130" s="20">
+      <c r="D130" s="19">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>209</v>
-      </c>
-      <c r="F130" s="20">
+        <v>208</v>
+      </c>
+      <c r="F130" s="19">
         <v>268</v>
       </c>
-      <c r="G130" s="20" t="s">
+      <c r="G130" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H130" s="20">
+      <c r="H130" s="19">
         <v>217</v>
       </c>
-      <c r="I130" s="20" t="s">
+      <c r="I130" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K130"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>202</v>
-      </c>
-      <c r="C131" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D131" s="20">
+      <c r="D131" s="19">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>209</v>
-      </c>
-      <c r="F131" s="20">
+        <v>208</v>
+      </c>
+      <c r="F131" s="19">
         <v>268</v>
       </c>
-      <c r="G131" s="20" t="s">
+      <c r="G131" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H131" s="20">
+      <c r="H131" s="19">
         <v>240</v>
       </c>
-      <c r="I131" s="20" t="s">
+      <c r="I131" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K131"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
-      </c>
-      <c r="C132" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C132" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="20">
+      <c r="D132" s="19">
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>209</v>
-      </c>
-      <c r="F132" s="20">
+        <v>208</v>
+      </c>
+      <c r="F132" s="19">
         <v>268</v>
       </c>
-      <c r="G132" s="20" t="s">
+      <c r="G132" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="H132" s="20">
+      <c r="H132" s="19">
         <v>20.059999999999999</v>
       </c>
       <c r="I132"/>
+      <c r="K132"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>202</v>
-      </c>
-      <c r="C133" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C133" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="20">
+      <c r="D133" s="19">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>209</v>
-      </c>
-      <c r="F133" s="20">
+        <v>208</v>
+      </c>
+      <c r="F133" s="19">
         <v>268</v>
       </c>
-      <c r="G133" s="20" t="s">
+      <c r="G133" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H133" s="26" t="s">
+      <c r="H133" s="25" t="s">
         <v>120</v>
       </c>
       <c r="I133"/>
+      <c r="K133"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>202</v>
-      </c>
-      <c r="C134" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C134" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="20">
+      <c r="D134" s="19">
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>209</v>
-      </c>
-      <c r="F134" s="20">
+        <v>208</v>
+      </c>
+      <c r="F134" s="19">
         <v>268</v>
       </c>
-      <c r="G134" s="20" t="s">
+      <c r="G134" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H134" s="20" t="s">
+      <c r="H134" s="19" t="s">
         <v>122</v>
       </c>
       <c r="I134"/>
+      <c r="K134"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
-      </c>
-      <c r="C135" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C135" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="20">
+      <c r="D135" s="19">
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>209</v>
-      </c>
-      <c r="F135" s="20">
+        <v>208</v>
+      </c>
+      <c r="F135" s="19">
         <v>268</v>
       </c>
-      <c r="G135" s="20" t="s">
+      <c r="G135" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H135" s="20" t="s">
+      <c r="H135" s="19" t="s">
         <v>124</v>
       </c>
       <c r="I135"/>
+      <c r="K135"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
-      </c>
-      <c r="C136" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C136" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="20">
+      <c r="D136" s="19">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>209</v>
-      </c>
-      <c r="F136" s="20">
+        <v>208</v>
+      </c>
+      <c r="F136" s="19">
         <v>268</v>
       </c>
-      <c r="G136" s="20" t="s">
+      <c r="G136" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H136" s="26" t="s">
+      <c r="H136" s="25" t="s">
         <v>126</v>
       </c>
       <c r="I136"/>
+      <c r="K136"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -48676,89 +48839,93 @@
       <c r="G137"/>
       <c r="H137"/>
       <c r="I137"/>
+      <c r="K137"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B138" t="s">
-        <v>202</v>
-      </c>
-      <c r="C138" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D138" s="20">
+      <c r="D138" s="19">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>208</v>
-      </c>
-      <c r="F138" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F138" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G138" s="20" t="s">
+      <c r="G138" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="H138" s="20" t="s">
+      <c r="H138" s="19" t="s">
         <v>129</v>
       </c>
       <c r="I138"/>
+      <c r="K138"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C139" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C139" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D139" s="20">
+      <c r="D139" s="19">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>208</v>
-      </c>
-      <c r="F139" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F139" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G139" s="20" t="s">
+      <c r="G139" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H139" s="20" t="s">
+      <c r="H139" s="19" t="s">
         <v>131</v>
       </c>
       <c r="I139"/>
+      <c r="K139"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>202</v>
-      </c>
-      <c r="C140" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C140" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="20">
+      <c r="D140" s="19">
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>208</v>
-      </c>
-      <c r="F140" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F140" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G140" s="20" t="s">
+      <c r="G140" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H140" s="20" t="s">
+      <c r="H140" s="19" t="s">
         <v>133</v>
       </c>
       <c r="I140"/>
+      <c r="K140"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -48768,203 +48935,211 @@
       <c r="G141"/>
       <c r="H141"/>
       <c r="I141"/>
+      <c r="K141"/>
     </row>
-    <row r="142" spans="1:10">
-      <c r="A142" s="20" t="s">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B142" t="s">
-        <v>202</v>
-      </c>
-      <c r="C142" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C142" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="20">
+      <c r="D142" s="19">
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>207</v>
-      </c>
-      <c r="F142" s="20">
+        <v>206</v>
+      </c>
+      <c r="F142" s="19">
         <v>19221</v>
       </c>
-      <c r="G142" s="20" t="s">
+      <c r="G142" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H142" s="20">
+      <c r="H142" s="19">
         <v>94000</v>
       </c>
       <c r="I142"/>
+      <c r="K142"/>
     </row>
-    <row r="143" spans="1:10">
-      <c r="A143" s="20" t="s">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B143" t="s">
-        <v>202</v>
-      </c>
-      <c r="C143" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C143" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="20">
+      <c r="D143" s="19">
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>207</v>
-      </c>
-      <c r="F143" s="20">
+        <v>206</v>
+      </c>
+      <c r="F143" s="19">
         <v>19221</v>
       </c>
-      <c r="G143" s="20" t="s">
+      <c r="G143" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H143" s="20">
+      <c r="H143" s="19">
         <v>40.362341666666701</v>
       </c>
       <c r="I143"/>
       <c r="J143"/>
+      <c r="K143"/>
     </row>
-    <row r="144" spans="1:10">
-      <c r="A144" s="20" t="s">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>202</v>
-      </c>
-      <c r="C144" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C144" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D144" s="20">
+      <c r="D144" s="19">
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>207</v>
-      </c>
-      <c r="F144" s="20">
+        <v>206</v>
+      </c>
+      <c r="F144" s="19">
         <v>19221</v>
       </c>
-      <c r="G144" s="20" t="s">
+      <c r="G144" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H144" s="20">
+      <c r="H144" s="19">
         <v>-70.878614999999996</v>
       </c>
       <c r="I144"/>
       <c r="J144"/>
+      <c r="K144"/>
     </row>
-    <row r="145" spans="1:10">
-      <c r="A145" s="20" t="s">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
-      </c>
-      <c r="C145" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C145" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D145" s="20">
+      <c r="D145" s="19">
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>207</v>
-      </c>
-      <c r="F145" s="20">
+        <v>206</v>
+      </c>
+      <c r="F145" s="19">
         <v>19221</v>
       </c>
-      <c r="G145" s="20" t="s">
+      <c r="G145" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="20">
+      <c r="H145" s="19">
         <v>0.45</v>
       </c>
       <c r="I145"/>
       <c r="J145"/>
+      <c r="K145"/>
     </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="20" t="s">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>202</v>
-      </c>
-      <c r="C146" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C146" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D146" s="20">
+      <c r="D146" s="19">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>207</v>
-      </c>
-      <c r="F146" s="20">
+        <v>206</v>
+      </c>
+      <c r="F146" s="19">
         <v>19221</v>
       </c>
-      <c r="G146" s="20" t="s">
+      <c r="G146" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H146" s="20">
+      <c r="H146" s="19">
         <v>0.45</v>
       </c>
       <c r="I146"/>
       <c r="J146"/>
+      <c r="K146"/>
     </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="20" t="s">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
-      </c>
-      <c r="C147" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C147" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="20">
+      <c r="D147" s="19">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>207</v>
-      </c>
-      <c r="F147" s="20">
+        <v>206</v>
+      </c>
+      <c r="F147" s="19">
         <v>19221</v>
       </c>
-      <c r="G147" s="20" t="s">
+      <c r="G147" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H147" s="20">
+      <c r="H147" s="19">
         <v>0.45</v>
       </c>
       <c r="I147"/>
       <c r="J147"/>
+      <c r="K147"/>
     </row>
-    <row r="148" spans="1:10">
-      <c r="A148" s="20" t="s">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B148" t="s">
-        <v>202</v>
-      </c>
-      <c r="C148" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="20">
+      <c r="D148" s="19">
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>207</v>
-      </c>
-      <c r="F148" s="20">
+        <v>206</v>
+      </c>
+      <c r="F148" s="19">
         <v>19221</v>
       </c>
-      <c r="G148" s="20" t="s">
+      <c r="G148" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H148" s="20">
+      <c r="H148" s="19">
         <v>0.45</v>
       </c>
       <c r="I148"/>
       <c r="J148"/>
+      <c r="K148"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -48974,498 +49149,517 @@
       <c r="G149"/>
       <c r="H149"/>
       <c r="I149"/>
+      <c r="K149"/>
     </row>
-    <row r="150" spans="1:10">
-      <c r="A150" s="20" t="s">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
-      </c>
-      <c r="C150" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C150" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="20">
+      <c r="D150" s="19">
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>206</v>
-      </c>
-      <c r="F150" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F150" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G150" s="20" t="s">
+      <c r="G150" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="H150" s="20">
+      <c r="H150" s="19">
         <v>2094.3690000000001</v>
       </c>
       <c r="I150"/>
+      <c r="K150"/>
     </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="20" t="s">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>202</v>
-      </c>
-      <c r="C151" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C151" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="20">
+      <c r="D151" s="19">
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>206</v>
-      </c>
-      <c r="F151" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F151" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G151" s="20" t="s">
+      <c r="G151" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H151" s="20">
+      <c r="H151" s="19">
         <v>15.749129999999999</v>
       </c>
       <c r="I151"/>
+      <c r="K151"/>
     </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="20" t="s">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>202</v>
-      </c>
-      <c r="C152" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="20">
+      <c r="D152" s="19">
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>206</v>
-      </c>
-      <c r="F152" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F152" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G152" s="20" t="s">
+      <c r="G152" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H152" s="20">
+      <c r="H152" s="19">
         <v>-3649.47</v>
       </c>
       <c r="I152"/>
+      <c r="K152"/>
     </row>
-    <row r="153" spans="1:10">
-      <c r="A153" s="20" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B153" t="s">
-        <v>202</v>
-      </c>
-      <c r="C153" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C153" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D153" s="20">
+      <c r="D153" s="19">
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>206</v>
-      </c>
-      <c r="F153" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F153" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G153" s="20" t="s">
+      <c r="G153" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H153" s="20">
+      <c r="H153" s="19">
         <v>2.1985999999999999E-2</v>
       </c>
       <c r="I153"/>
+      <c r="K153"/>
     </row>
-    <row r="154" spans="1:10">
-      <c r="A154" s="20" t="s">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>202</v>
-      </c>
-      <c r="C154" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C154" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="20">
+      <c r="D154" s="19">
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>206</v>
-      </c>
-      <c r="F154" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F154" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G154" s="20" t="s">
+      <c r="G154" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H154" s="20">
+      <c r="H154" s="19">
         <v>0</v>
       </c>
       <c r="I154"/>
+      <c r="K154"/>
     </row>
-    <row r="155" spans="1:10">
-      <c r="A155" s="20" t="s">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B155" t="s">
-        <v>202</v>
-      </c>
-      <c r="C155" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C155" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="20">
+      <c r="D155" s="19">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>206</v>
-      </c>
-      <c r="F155" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F155" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G155" s="20" t="s">
+      <c r="G155" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="H155" s="20">
+      <c r="H155" s="19">
         <v>0</v>
       </c>
-      <c r="I155" s="20" t="s">
+      <c r="I155" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K155"/>
     </row>
-    <row r="156" spans="1:10">
-      <c r="A156" s="20" t="s">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>202</v>
-      </c>
-      <c r="C156" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D156" s="20">
+      <c r="D156" s="19">
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>206</v>
-      </c>
-      <c r="F156" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F156" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G156" s="20" t="s">
+      <c r="G156" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H156" s="20">
+      <c r="H156" s="19">
         <v>-0.2014</v>
       </c>
       <c r="I156"/>
+      <c r="K156"/>
     </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="20" t="s">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B157" t="s">
-        <v>202</v>
-      </c>
-      <c r="C157" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C157" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="20">
+      <c r="D157" s="19">
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>206</v>
-      </c>
-      <c r="F157" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F157" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G157" s="20" t="s">
+      <c r="G157" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="H157" s="20">
+      <c r="H157" s="19">
         <v>1</v>
       </c>
-      <c r="I157" s="20" t="s">
+      <c r="I157" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K157"/>
     </row>
-    <row r="158" spans="1:10">
-      <c r="A158" s="20" t="s">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B158" t="s">
-        <v>202</v>
-      </c>
-      <c r="C158" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D158" s="20">
+      <c r="D158" s="19">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>206</v>
-      </c>
-      <c r="F158" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F158" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G158" s="20" t="s">
+      <c r="G158" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="H158" s="20">
+      <c r="H158" s="19">
         <v>27.677230000000002</v>
       </c>
       <c r="I158"/>
+      <c r="K158"/>
     </row>
-    <row r="159" spans="1:10">
-      <c r="A159" s="20" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B159" t="s">
-        <v>202</v>
-      </c>
-      <c r="C159" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C159" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D159" s="20">
+      <c r="D159" s="19">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>206</v>
-      </c>
-      <c r="F159" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F159" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G159" s="20" t="s">
+      <c r="G159" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="H159" s="20">
+      <c r="H159" s="19">
         <v>0.390712</v>
       </c>
       <c r="I159"/>
+      <c r="K159"/>
     </row>
-    <row r="160" spans="1:10">
-      <c r="A160" s="20" t="s">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B160" t="s">
-        <v>202</v>
-      </c>
-      <c r="C160" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C160" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D160" s="20">
+      <c r="D160" s="19">
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>206</v>
-      </c>
-      <c r="F160" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F160" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G160" s="20" t="s">
+      <c r="G160" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="H160" s="20">
+      <c r="H160" s="19">
         <v>18.058910000000001</v>
       </c>
       <c r="I160"/>
+      <c r="K160"/>
     </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="20" t="s">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>202</v>
-      </c>
-      <c r="C161" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C161" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D161" s="20">
+      <c r="D161" s="19">
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>206</v>
-      </c>
-      <c r="F161" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F161" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G161" s="20" t="s">
+      <c r="G161" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="H161" s="20">
+      <c r="H161" s="19">
         <v>26.153639999999999</v>
       </c>
       <c r="I161"/>
+      <c r="K161"/>
     </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="20" t="s">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B162" t="s">
-        <v>202</v>
-      </c>
-      <c r="C162" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C162" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D162" s="20">
+      <c r="D162" s="19">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>206</v>
-      </c>
-      <c r="F162" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F162" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G162" s="20" t="s">
+      <c r="G162" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H162" s="20">
+      <c r="H162" s="19">
         <v>5.8282090000000002</v>
       </c>
       <c r="I162"/>
+      <c r="K162"/>
     </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="20" t="s">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B163" t="s">
-        <v>202</v>
-      </c>
-      <c r="C163" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C163" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="20">
+      <c r="D163" s="19">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>206</v>
-      </c>
-      <c r="F163" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F163" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G163" s="20" t="s">
+      <c r="G163" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H163" s="20">
+      <c r="H163" s="19">
         <v>-3920.2510000000002</v>
       </c>
       <c r="I163"/>
+      <c r="K163"/>
     </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="20" t="s">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B164" t="s">
-        <v>202</v>
-      </c>
-      <c r="C164" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C164" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D164" s="20">
+      <c r="D164" s="19">
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>206</v>
-      </c>
-      <c r="F164" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F164" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G164" s="20" t="s">
+      <c r="G164" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="H164" s="20">
+      <c r="H164" s="19">
         <v>-10474.77</v>
       </c>
       <c r="I164"/>
+      <c r="K164"/>
     </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="20" t="s">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B165" t="s">
-        <v>202</v>
-      </c>
-      <c r="C165" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C165" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D165" s="20">
+      <c r="D165" s="19">
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>206</v>
-      </c>
-      <c r="F165" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F165" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="G165" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H165" s="20">
+      <c r="H165" s="19">
         <v>0</v>
       </c>
       <c r="I165"/>
+      <c r="K165"/>
     </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="20" t="s">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B166" t="s">
-        <v>202</v>
-      </c>
-      <c r="C166" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C166" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D166" s="20">
+      <c r="D166" s="19">
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>206</v>
-      </c>
-      <c r="F166" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F166" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G166" s="20" t="s">
+      <c r="G166" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H166" s="20">
+      <c r="H166" s="19">
         <v>2796.2</v>
       </c>
       <c r="I166"/>
+      <c r="K166"/>
     </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="20" t="s">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C167" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C167" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D167" s="20">
+      <c r="D167" s="19">
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>206</v>
-      </c>
-      <c r="F167" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F167" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G167" s="20" t="s">
+      <c r="G167" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H167" s="20">
+      <c r="H167" s="19">
         <v>41943</v>
       </c>
       <c r="I167"/>
+      <c r="K167"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -49475,224 +49669,233 @@
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
+      <c r="K168"/>
     </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="20" t="s">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B169" t="s">
-        <v>202</v>
-      </c>
-      <c r="C169" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C169" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D169" s="20">
+      <c r="D169" s="19">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>205</v>
-      </c>
-      <c r="F169" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F169" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G169" s="20" t="s">
+      <c r="G169" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="H169" s="20">
+      <c r="H169" s="19">
         <v>-0.02</v>
       </c>
       <c r="I169"/>
+      <c r="K169"/>
     </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="20" t="s">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B170" t="s">
-        <v>202</v>
-      </c>
-      <c r="C170" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C170" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="20">
+      <c r="D170" s="19">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>205</v>
-      </c>
-      <c r="F170" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F170" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G170" s="20" t="s">
+      <c r="G170" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H170" s="20">
+      <c r="H170" s="19">
         <v>0.89419999999999999</v>
       </c>
       <c r="I170"/>
+      <c r="K170"/>
     </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="20" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>202</v>
-      </c>
-      <c r="C171" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C171" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D171" s="20">
+      <c r="D171" s="19">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>205</v>
-      </c>
-      <c r="F171" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F171" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="G171" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="H171" s="20">
+      <c r="H171" s="19">
         <v>-1.8018000000000001</v>
       </c>
       <c r="I171"/>
+      <c r="K171"/>
     </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="20" t="s">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B172" t="s">
-        <v>202</v>
-      </c>
-      <c r="C172" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C172" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D172" s="20">
+      <c r="D172" s="19">
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>205</v>
-      </c>
-      <c r="F172" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F172" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G172" s="20" t="s">
+      <c r="G172" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H172" s="20">
+      <c r="H172" s="19">
         <v>15.25</v>
       </c>
       <c r="I172"/>
+      <c r="K172"/>
     </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="20" t="s">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
-      </c>
-      <c r="C173" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C173" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="20">
+      <c r="D173" s="19">
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>205</v>
-      </c>
-      <c r="F173" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F173" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G173" s="20" t="s">
+      <c r="G173" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H173" s="20">
+      <c r="H173" s="19">
         <v>19706</v>
       </c>
       <c r="I173"/>
+      <c r="K173"/>
     </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="20" t="s">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>202</v>
-      </c>
-      <c r="C174" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C174" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D174" s="20">
+      <c r="D174" s="19">
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>205</v>
-      </c>
-      <c r="F174" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F174" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G174" s="20" t="s">
+      <c r="G174" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H174" s="20">
+      <c r="H174" s="19">
         <v>34</v>
       </c>
       <c r="I174"/>
+      <c r="K174"/>
     </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="20" t="s">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B175" t="s">
-        <v>202</v>
-      </c>
-      <c r="C175" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C175" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="20">
+      <c r="D175" s="19">
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>205</v>
-      </c>
-      <c r="F175" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F175" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G175" s="20" t="s">
+      <c r="G175" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H175" s="20">
+      <c r="H175" s="19">
         <v>3073</v>
       </c>
       <c r="I175"/>
+      <c r="K175"/>
     </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="20" t="s">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B176" t="s">
-        <v>202</v>
-      </c>
-      <c r="C176" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C176" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D176" s="20">
+      <c r="D176" s="19">
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>205</v>
-      </c>
-      <c r="F176" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F176" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G176" s="20" t="s">
+      <c r="G176" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H176" s="20">
+      <c r="H176" s="19">
         <v>44327</v>
       </c>
       <c r="I176"/>
+      <c r="K176"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -49700,31 +49903,33 @@
       <c r="E177"/>
       <c r="F177"/>
       <c r="I177"/>
+      <c r="K177"/>
     </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="2" t="s">
-        <v>194</v>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>236</v>
       </c>
       <c r="B178" t="s">
-        <v>202</v>
-      </c>
-      <c r="C178" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C178" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D178" s="20">
+      <c r="D178" s="19">
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F178">
         <v>55074</v>
       </c>
-      <c r="I178" s="20" t="s">
+      <c r="I178" s="19" t="s">
         <v>168</v>
       </c>
+      <c r="K178"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -49732,195 +49937,233 @@
       <c r="E179"/>
       <c r="F179"/>
       <c r="I179"/>
+      <c r="K179"/>
     </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="20" t="s">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="19" t="s">
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>202</v>
-      </c>
-      <c r="C180" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C180" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D180" s="20">
+      <c r="D180" s="19">
         <v>1</v>
       </c>
-      <c r="F180" s="22" t="s">
+      <c r="E180" t="s">
+        <v>227</v>
+      </c>
+      <c r="F180" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="I180" s="27" t="s">
+      <c r="I180" s="26" t="s">
         <v>171</v>
       </c>
+      <c r="K180"/>
     </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="20" t="s">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="19" t="s">
         <v>172</v>
       </c>
       <c r="B181" t="s">
-        <v>202</v>
-      </c>
-      <c r="C181" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C181" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D181" s="20">
+      <c r="D181" s="19">
         <v>1</v>
       </c>
-      <c r="F181" s="22" t="s">
+      <c r="E181" t="s">
+        <v>228</v>
+      </c>
+      <c r="F181" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="I181" s="27" t="s">
+      <c r="I181" s="26" t="s">
         <v>171</v>
       </c>
+      <c r="K181"/>
     </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="20" t="s">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="19" t="s">
         <v>174</v>
       </c>
       <c r="B182" t="s">
-        <v>202</v>
-      </c>
-      <c r="C182" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C182" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D182" s="20">
+      <c r="D182" s="19">
         <v>1</v>
       </c>
-      <c r="F182" s="22" t="s">
+      <c r="E182" t="s">
+        <v>229</v>
+      </c>
+      <c r="F182" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I182" s="27" t="s">
+      <c r="I182" s="26" t="s">
         <v>171</v>
       </c>
+      <c r="K182"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
-      <c r="F183" s="22"/>
-      <c r="I183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="I183" s="20"/>
+      <c r="K183"/>
     </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="20" t="s">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="19" t="s">
         <v>176</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
-      </c>
-      <c r="C184" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C184" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="20">
+      <c r="D184" s="19">
         <v>1</v>
       </c>
-      <c r="F184" s="22" t="s">
+      <c r="E184" t="s">
+        <v>230</v>
+      </c>
+      <c r="F184" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="I184" s="27" t="s">
+      <c r="I184" s="26" t="s">
         <v>178</v>
       </c>
+      <c r="K184"/>
     </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="20" t="s">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="19" t="s">
         <v>179</v>
       </c>
       <c r="B185" t="s">
-        <v>202</v>
-      </c>
-      <c r="C185" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C185" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D185" s="20">
+      <c r="D185" s="19">
         <v>1</v>
       </c>
-      <c r="F185" s="22" t="s">
+      <c r="E185" t="s">
+        <v>231</v>
+      </c>
+      <c r="F185" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="I185" s="27" t="s">
+      <c r="I185" s="26" t="s">
         <v>178</v>
       </c>
+      <c r="K185"/>
     </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="20" t="s">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>202</v>
-      </c>
-      <c r="C186" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C186" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D186" s="20">
+      <c r="D186" s="19">
         <v>1</v>
       </c>
-      <c r="F186" s="22" t="s">
+      <c r="E186" t="s">
+        <v>232</v>
+      </c>
+      <c r="F186" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="I186" s="27" t="s">
+      <c r="I186" s="26" t="s">
         <v>178</v>
       </c>
+      <c r="K186"/>
     </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="20" t="s">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="19" t="s">
         <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>202</v>
-      </c>
-      <c r="C187" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C187" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D187" s="20">
+      <c r="D187" s="19">
         <v>1</v>
       </c>
-      <c r="F187" s="22" t="s">
+      <c r="E187" t="s">
+        <v>233</v>
+      </c>
+      <c r="F187" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I187" s="27" t="s">
+      <c r="I187" s="26" t="s">
         <v>178</v>
       </c>
+      <c r="K187"/>
     </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="20" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="19" t="s">
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
-      </c>
-      <c r="C188" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C188" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D188" s="20">
+      <c r="D188" s="19">
         <v>1</v>
       </c>
-      <c r="F188" s="22" t="s">
+      <c r="E188" t="s">
+        <v>234</v>
+      </c>
+      <c r="F188" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="I188" s="27" t="s">
+      <c r="I188" s="26" t="s">
         <v>178</v>
       </c>
+      <c r="K188"/>
     </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="20" t="s">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>202</v>
-      </c>
-      <c r="C189" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C189" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D189" s="20">
+      <c r="D189" s="19">
         <v>1</v>
       </c>
-      <c r="F189" s="22" t="s">
+      <c r="E189" t="s">
+        <v>235</v>
+      </c>
+      <c r="F189" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="I189" s="27" t="s">
+      <c r="I189" s="26" t="s">
         <v>178</v>
       </c>
+      <c r="K189"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -49939,9 +50182,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-0.12295300000000001</v>
       </c>
@@ -50057,7 +50300,7 @@
         <v>5.2187999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.109476</v>
       </c>
@@ -50173,7 +50416,7 @@
         <v>4.4817999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-9.6312999999999996E-2</v>
       </c>
@@ -50289,7 +50532,7 @@
         <v>3.6823000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-8.2314999999999999E-2</v>
       </c>
@@ -50405,7 +50648,7 @@
         <v>3.0873000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-6.9955000000000003E-2</v>
       </c>
@@ -50521,7 +50764,7 @@
         <v>2.5044E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-5.9865000000000002E-2</v>
       </c>
@@ -50637,7 +50880,7 @@
         <v>2.0485E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.1500999999999998E-2</v>
       </c>
@@ -50753,7 +50996,7 @@
         <v>1.721E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4.4443999999999997E-2</v>
       </c>
@@ -50869,7 +51112,7 @@
         <v>1.4402E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-3.8405000000000002E-2</v>
       </c>
@@ -50985,7 +51228,7 @@
         <v>1.2527E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-3.4391999999999999E-2</v>
       </c>
@@ -51101,7 +51344,7 @@
         <v>1.0567E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-3.0145000000000002E-2</v>
       </c>
@@ -51217,7 +51460,7 @@
         <v>8.8679999999999991E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.5998E-2</v>
       </c>
@@ -51333,7 +51576,7 @@
         <v>7.7060000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.2898000000000002E-2</v>
       </c>
@@ -51449,7 +51692,7 @@
         <v>6.679E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-2.0032000000000001E-2</v>
       </c>
@@ -51565,7 +51808,7 @@
         <v>5.6899999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.7579000000000001E-2</v>
       </c>
@@ -51681,7 +51924,7 @@
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.5637999999999999E-2</v>
       </c>
@@ -51797,7 +52040,7 @@
         <v>4.444E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.3892E-2</v>
       </c>
@@ -51913,7 +52156,7 @@
         <v>4.0090000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.1993999999999999E-2</v>
       </c>
@@ -52029,7 +52272,7 @@
         <v>3.4589999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.0363000000000001E-2</v>
       </c>
@@ -52145,7 +52388,7 @@
         <v>3.0409999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-9.1570000000000002E-3</v>
       </c>
@@ -52261,7 +52504,7 @@
         <v>2.647E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-8.1689999999999992E-3</v>
       </c>
@@ -52377,7 +52620,7 @@
         <v>2.4429999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-6.6540000000000002E-3</v>
       </c>
@@ -52493,7 +52736,7 @@
         <v>2.14E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-5.8110000000000002E-3</v>
       </c>
@@ -52609,7 +52852,7 @@
         <v>1.9189999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-4.9950000000000003E-3</v>
       </c>
@@ -52725,7 +52968,7 @@
         <v>1.7149999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-4.1580000000000002E-3</v>
       </c>
@@ -52841,7 +53084,7 @@
         <v>1.382E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.4190000000000002E-3</v>
       </c>
@@ -52957,7 +53200,7 @@
         <v>1.2930000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.6570000000000001E-3</v>
       </c>
@@ -53073,7 +53316,7 @@
         <v>1.127E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.5019999999999999E-3</v>
       </c>
@@ -53189,7 +53432,7 @@
         <v>1.0070000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.9650000000000002E-3</v>
       </c>
@@ -53305,7 +53548,7 @@
         <v>9.0799999999999995E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.604E-3</v>
       </c>
@@ -53421,7 +53664,7 @@
         <v>8.3299999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.2689999999999999E-3</v>
       </c>
@@ -53537,7 +53780,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-6.5399999999999996E-4</v>
       </c>
@@ -53653,7 +53896,7 @@
         <v>7.4399999999999998E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-6.7000000000000002E-4</v>
       </c>
@@ -53769,7 +54012,7 @@
         <v>6.7900000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.54E-4</v>
       </c>
@@ -53885,7 +54128,7 @@
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-3.4499999999999998E-4</v>
       </c>
@@ -54001,7 +54244,7 @@
         <v>6.5099999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.5399999999999998E-4</v>
       </c>
@@ -54117,7 +54360,7 @@
         <v>6.7000000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.6200000000000001E-4</v>
       </c>
@@ -54233,7 +54476,7 @@
         <v>6.78E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.7100000000000001E-4</v>
       </c>
@@ -54349,7 +54592,7 @@
         <v>6.4499999999999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.76E-4</v>
       </c>
@@ -54465,7 +54708,7 @@
         <v>6.1200000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.1499999999999999E-4</v>
       </c>
@@ -54581,7 +54824,7 @@
         <v>5.1900000000000004E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -54697,7 +54940,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.1300000000000002E-4</v>
       </c>
@@ -54813,7 +55056,7 @@
         <v>3.59E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8.0800000000000002E-4</v>
       </c>
@@ -54929,7 +55172,7 @@
         <v>2.61E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.696E-3</v>
       </c>
@@ -55045,7 +55288,7 @@
         <v>-1.573E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.4809999999999999E-3</v>
       </c>
@@ -55161,7 +55404,7 @@
         <v>-1.4599999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.547E-3</v>
       </c>
@@ -55277,7 +55520,7 @@
         <v>-1.405E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.534E-3</v>
       </c>
@@ -55393,7 +55636,7 @@
         <v>-1.279E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.5150000000000001E-3</v>
       </c>
@@ -55509,7 +55752,7 @@
         <v>-1.204E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.6800000000000001E-3</v>
       </c>
@@ -55625,7 +55868,7 @@
         <v>-1.132E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.6050000000000001E-3</v>
       </c>
@@ -55741,7 +55984,7 @@
         <v>-1.005E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.6019999999999999E-3</v>
       </c>
@@ -55857,7 +56100,7 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.665E-3</v>
       </c>
@@ -55973,7 +56216,7 @@
         <v>-8.7100000000000003E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.668E-3</v>
       </c>
@@ -56089,7 +56332,7 @@
         <v>-7.8399999999999997E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.663E-3</v>
       </c>
@@ -56205,7 +56448,7 @@
         <v>-7.2099999999999996E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.6720000000000001E-3</v>
       </c>
@@ -56321,7 +56564,7 @@
         <v>-6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.6850000000000001E-3</v>
       </c>
@@ -56437,7 +56680,7 @@
         <v>-6.5899999999999997E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.7819999999999999E-3</v>
       </c>
@@ -56553,7 +56796,7 @@
         <v>-5.4299999999999997E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.758E-3</v>
       </c>
@@ -56669,7 +56912,7 @@
         <v>-4.9100000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.622E-3</v>
       </c>
@@ -56785,7 +57028,7 @@
         <v>-4.4299999999999998E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.457E-3</v>
       </c>
@@ -56901,7 +57144,7 @@
         <v>-3.7399999999999998E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.333E-3</v>
       </c>
@@ -57017,7 +57260,7 @@
         <v>-3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.354E-3</v>
       </c>
@@ -57133,7 +57376,7 @@
         <v>-3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.42E-3</v>
       </c>
@@ -57249,7 +57492,7 @@
         <v>-2.1499999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.2620000000000001E-3</v>
       </c>
@@ -57365,7 +57608,7 @@
         <v>-1.44E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.1479999999999999E-3</v>
       </c>
@@ -57481,7 +57724,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.191E-3</v>
       </c>
@@ -57597,7 +57840,7 @@
         <v>-4.1E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.2440000000000001E-3</v>
       </c>
@@ -57713,7 +57956,7 @@
         <v>-5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.0859999999999999E-3</v>
       </c>
@@ -57829,7 +58072,7 @@
         <v>-5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.0449999999999999E-3</v>
       </c>
@@ -57945,7 +58188,7 @@
         <v>-6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9.0200000000000002E-4</v>
       </c>
@@ -58061,7 +58304,7 @@
         <v>-1.94E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.1460000000000001E-3</v>
       </c>
@@ -58177,7 +58420,7 @@
         <v>-2.2800000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.474E-3</v>
       </c>
@@ -58293,7 +58536,7 @@
         <v>-3.6600000000000001E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.794E-3</v>
       </c>
@@ -58409,7 +58652,7 @@
         <v>-5.7799999999999995E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.9300000000000001E-3</v>
       </c>
@@ -58525,7 +58768,7 @@
         <v>-7.0899999999999999E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.032E-3</v>
       </c>
@@ -58641,7 +58884,7 @@
         <v>-8.43E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.7619999999999999E-3</v>
       </c>
@@ -58757,7 +59000,7 @@
         <v>-8.8199999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -58873,7 +59116,7 @@
         <v>-9.6599999999999995E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.6299999999999999E-3</v>
       </c>
@@ -58989,7 +59232,7 @@
         <v>-1.0150000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.4989999999999999E-3</v>
       </c>
@@ -59122,9 +59365,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>6.502E-3</v>
       </c>
@@ -59240,7 +59483,7 @@
         <v>-2.9305999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7.5399999999999998E-3</v>
       </c>
@@ -59356,7 +59599,7 @@
         <v>-2.8257000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.371E-3</v>
       </c>
@@ -59472,7 +59715,7 @@
         <v>-2.5447999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.3499999999999997E-3</v>
       </c>
@@ -59588,7 +59831,7 @@
         <v>-2.5898000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9789999999999999E-3</v>
       </c>
@@ -59704,7 +59947,7 @@
         <v>-2.5122999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.0700000000000008E-3</v>
       </c>
@@ -59820,7 +60063,7 @@
         <v>-2.4976999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.9559999999999995E-3</v>
       </c>
@@ -59936,7 +60179,7 @@
         <v>-2.4431999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.0073E-2</v>
       </c>
@@ -60052,7 +60295,7 @@
         <v>-2.5092E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.2914999999999999E-2</v>
       </c>
@@ -60168,7 +60411,7 @@
         <v>-2.4013E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.3252E-2</v>
       </c>
@@ -60284,7 +60527,7 @@
         <v>-2.4847999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.5432E-2</v>
       </c>
@@ -60400,7 +60643,7 @@
         <v>-2.4327999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.5630999999999999E-2</v>
       </c>
@@ -60516,7 +60759,7 @@
         <v>-2.4232E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.6574999999999999E-2</v>
       </c>
@@ -60632,7 +60875,7 @@
         <v>-2.4160000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.7505E-2</v>
       </c>
@@ -60748,7 +60991,7 @@
         <v>-2.3446999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.8298999999999999E-2</v>
       </c>
@@ -60864,7 +61107,7 @@
         <v>-2.3361E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.8811000000000001E-2</v>
       </c>
@@ -60980,7 +61223,7 @@
         <v>-2.3258999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.9082999999999999E-2</v>
       </c>
@@ -61096,7 +61339,7 @@
         <v>-2.2512999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.9411000000000001E-2</v>
       </c>
@@ -61212,7 +61455,7 @@
         <v>-2.2519999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.9425999999999999E-2</v>
       </c>
@@ -61328,7 +61571,7 @@
         <v>-2.2197000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.8971999999999999E-2</v>
       </c>
@@ -61444,7 +61687,7 @@
         <v>-2.1777999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.8988999999999999E-2</v>
       </c>
@@ -61560,7 +61803,7 @@
         <v>-2.1957999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.9675999999999999E-2</v>
       </c>
@@ -61676,7 +61919,7 @@
         <v>-2.1429E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.9005000000000001E-2</v>
       </c>
@@ -61792,7 +62035,7 @@
         <v>-2.1170000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.9892E-2</v>
       </c>
@@ -61908,7 +62151,7 @@
         <v>-2.1034000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.968E-2</v>
       </c>
@@ -62024,7 +62267,7 @@
         <v>-2.0567999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.9866000000000002E-2</v>
       </c>
@@ -62140,7 +62383,7 @@
         <v>-2.0317999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.0230000000000001E-2</v>
       </c>
@@ -62256,7 +62499,7 @@
         <v>-1.9931000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.0452000000000001E-2</v>
       </c>
@@ -62372,7 +62615,7 @@
         <v>-1.9397999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.1274000000000001E-2</v>
       </c>
@@ -62488,7 +62731,7 @@
         <v>-1.9109000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.1624999999999998E-2</v>
       </c>
@@ -62604,7 +62847,7 @@
         <v>-1.8602E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.1729999999999999E-2</v>
       </c>
@@ -62720,7 +62963,7 @@
         <v>-1.8255E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.2558000000000002E-2</v>
       </c>
@@ -62836,7 +63079,7 @@
         <v>-1.797E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.2578999999999998E-2</v>
       </c>
@@ -62952,7 +63195,7 @@
         <v>-1.7409000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.2261E-2</v>
       </c>
@@ -63068,7 +63311,7 @@
         <v>-1.7328E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.2717999999999999E-2</v>
       </c>
@@ -63184,7 +63427,7 @@
         <v>-1.6914999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.2329000000000002E-2</v>
       </c>
@@ -63300,7 +63543,7 @@
         <v>-1.6785000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.1847999999999999E-2</v>
       </c>
@@ -63416,7 +63659,7 @@
         <v>-1.6666E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.1981000000000001E-2</v>
       </c>
@@ -63532,7 +63775,7 @@
         <v>-1.6521999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.1208000000000001E-2</v>
       </c>
@@ -63648,7 +63891,7 @@
         <v>-1.6521999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.1294E-2</v>
       </c>
@@ -63764,7 +64007,7 @@
         <v>-1.6392E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.0708000000000001E-2</v>
       </c>
@@ -63880,7 +64123,7 @@
         <v>-1.6354E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.9826E-2</v>
       </c>
@@ -63996,7 +64239,7 @@
         <v>-1.6288E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.9868E-2</v>
       </c>
@@ -64112,7 +64355,7 @@
         <v>-1.6088000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.0799999999999999E-2</v>
       </c>
@@ -64228,7 +64471,7 @@
         <v>-1.6532999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.0517000000000001E-2</v>
       </c>
@@ -64344,7 +64587,7 @@
         <v>-1.6351000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.9968E-2</v>
       </c>
@@ -64460,7 +64703,7 @@
         <v>-1.6223000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.9796000000000001E-2</v>
       </c>
@@ -64576,7 +64819,7 @@
         <v>-1.5918000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.9779999999999999E-2</v>
       </c>
@@ -64692,7 +64935,7 @@
         <v>-1.5764E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.9553999999999998E-2</v>
       </c>
@@ -64808,7 +65051,7 @@
         <v>-1.5539000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.9227000000000001E-2</v>
       </c>
@@ -64924,7 +65167,7 @@
         <v>-1.5192000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.9098E-2</v>
       </c>
@@ -65040,7 +65283,7 @@
         <v>-1.4964999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.9073E-2</v>
       </c>
@@ -65156,7 +65399,7 @@
         <v>-1.4598E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.9203999999999999E-2</v>
       </c>
@@ -65272,7 +65515,7 @@
         <v>-1.4231000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.933E-2</v>
       </c>
@@ -65388,7 +65631,7 @@
         <v>-1.3998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.9584000000000001E-2</v>
       </c>
@@ -65504,7 +65747,7 @@
         <v>-1.3592999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.9663E-2</v>
       </c>
@@ -65620,7 +65863,7 @@
         <v>-1.3239000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.9935000000000001E-2</v>
       </c>
@@ -65736,7 +65979,7 @@
         <v>-1.285E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.9657999999999998E-2</v>
       </c>
@@ -65852,7 +66095,7 @@
         <v>-1.2655E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.0233999999999999E-2</v>
       </c>
@@ -65968,7 +66211,7 @@
         <v>-1.2307999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.0622999999999999E-2</v>
       </c>
@@ -66084,7 +66327,7 @@
         <v>-1.1939999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2.0405E-2</v>
       </c>
@@ -66200,7 +66443,7 @@
         <v>-1.1730000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.0618999999999998E-2</v>
       </c>
@@ -66316,7 +66559,7 @@
         <v>-1.1449000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.0497000000000001E-2</v>
       </c>
@@ -66432,7 +66675,7 @@
         <v>-1.1176999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.0379000000000001E-2</v>
       </c>
@@ -66548,7 +66791,7 @@
         <v>-1.1072E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.0708000000000001E-2</v>
       </c>
@@ -66664,7 +66907,7 @@
         <v>-1.0766E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.0153000000000001E-2</v>
       </c>
@@ -66780,7 +67023,7 @@
         <v>-1.0642E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.9996E-2</v>
       </c>
@@ -66896,7 +67139,7 @@
         <v>-1.0557E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.9701E-2</v>
       </c>
@@ -67012,7 +67255,7 @@
         <v>-1.0295E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.9044999999999999E-2</v>
       </c>
@@ -67128,7 +67371,7 @@
         <v>-1.0415000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.9299E-2</v>
       </c>
@@ -67244,7 +67487,7 @@
         <v>-1.0260999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.9092000000000001E-2</v>
       </c>
@@ -67360,7 +67603,7 @@
         <v>-1.0182999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.8817E-2</v>
       </c>
@@ -67476,7 +67719,7 @@
         <v>-1.0163999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.8679999999999999E-2</v>
       </c>
@@ -67592,7 +67835,7 @@
         <v>-9.9260000000000008E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.8279E-2</v>
       </c>
@@ -67708,7 +67951,7 @@
         <v>-9.9500000000000005E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.7995000000000001E-2</v>
       </c>
@@ -67824,7 +68067,7 @@
         <v>-1.0043E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.8428E-2</v>
       </c>
@@ -67940,7 +68183,7 @@
         <v>-9.6039999999999997E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.7512E-2</v>
       </c>
@@ -68056,7 +68299,7 @@
         <v>-9.8119999999999995E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.7756000000000001E-2</v>
       </c>
@@ -68172,7 +68415,7 @@
         <v>-9.6749999999999996E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.9252999999999999E-2</v>
       </c>
@@ -68305,9 +68548,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-5.3560000000000003E-2</v>
       </c>
@@ -68420,7 +68663,7 @@
         <v>1.1622E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.2927E-2</v>
       </c>
@@ -68533,7 +68776,7 @@
         <v>4.9179999999999996E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.9131000000000001E-2</v>
       </c>
@@ -68646,7 +68889,7 @@
         <v>-1.606E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.6140000000000002E-2</v>
       </c>
@@ -68759,7 +69002,7 @@
         <v>-5.8269999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.2810999999999999E-2</v>
       </c>
@@ -68872,7 +69115,7 @@
         <v>-9.1459999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-6.5880000000000001E-3</v>
       </c>
@@ -68985,7 +69228,7 @@
         <v>-1.0056000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.0949999999999997E-3</v>
       </c>
@@ -69098,7 +69341,7 @@
         <v>-1.0015E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.163E-3</v>
       </c>
@@ -69211,7 +69454,7 @@
         <v>-9.7540000000000005E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.8990000000000001E-3</v>
       </c>
@@ -69324,7 +69567,7 @@
         <v>-9.4629999999999992E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.0599999999999999E-4</v>
       </c>
@@ -69437,7 +69680,7 @@
         <v>-8.6949999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4.0499999999999998E-4</v>
       </c>
@@ -69550,7 +69793,7 @@
         <v>-8.4740000000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.7599999999999999E-4</v>
       </c>
@@ -69663,7 +69906,7 @@
         <v>-7.561E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6.8999999999999997E-4</v>
       </c>
@@ -69776,7 +70019,7 @@
         <v>-7.0439999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -69889,7 +70132,7 @@
         <v>-6.5849999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.5900000000000001E-4</v>
       </c>
@@ -70002,7 +70245,7 @@
         <v>-6.1050000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.3200000000000003E-4</v>
       </c>
@@ -70115,7 +70358,7 @@
         <v>-5.5579999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.9999999999999994E-5</v>
       </c>
@@ -70228,7 +70471,7 @@
         <v>-5.391E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.85E-4</v>
       </c>
@@ -70341,7 +70584,7 @@
         <v>-4.9220000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.4300000000000001E-4</v>
       </c>
@@ -70454,7 +70697,7 @@
         <v>-4.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.5899999999999999E-4</v>
       </c>
@@ -70567,7 +70810,7 @@
         <v>-4.3420000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.4700000000000002E-4</v>
       </c>
@@ -70680,7 +70923,7 @@
         <v>-4.0870000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-7.85E-4</v>
       </c>
@@ -70793,7 +71036,7 @@
         <v>-3.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.0449999999999999E-3</v>
       </c>
@@ -70906,7 +71149,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.4189999999999999E-3</v>
       </c>
@@ -71019,7 +71262,7 @@
         <v>-3.3379999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.7819999999999999E-3</v>
       </c>
@@ -71132,7 +71375,7 @@
         <v>-3.1129999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.951E-3</v>
       </c>
@@ -71245,7 +71488,7 @@
         <v>-2.879E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.222E-3</v>
       </c>
@@ -71358,7 +71601,7 @@
         <v>-2.663E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.562E-3</v>
       </c>
@@ -71471,7 +71714,7 @@
         <v>-2.555E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.892E-3</v>
       </c>
@@ -71584,7 +71827,7 @@
         <v>-2.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.1700000000000001E-3</v>
       </c>
@@ -71697,7 +71940,7 @@
         <v>-2.271E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.4619999999999998E-3</v>
       </c>
@@ -71810,7 +72053,7 @@
         <v>-2.1120000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.852E-3</v>
       </c>
@@ -71923,7 +72166,7 @@
         <v>-2.0939999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3.999E-3</v>
       </c>
@@ -72036,7 +72279,7 @@
         <v>-1.9610000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-4.2579999999999996E-3</v>
       </c>
@@ -72149,7 +72392,7 @@
         <v>-1.853E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-4.3559999999999996E-3</v>
       </c>
@@ -72262,7 +72505,7 @@
         <v>-1.8109999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.7590000000000002E-3</v>
       </c>
@@ -72375,7 +72618,7 @@
         <v>-1.7459999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-5.1269999999999996E-3</v>
       </c>
@@ -72488,7 +72731,7 @@
         <v>-1.722E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-2.284E-3</v>
       </c>
@@ -72601,7 +72844,7 @@
         <v>-2.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.1050000000000001E-3</v>
       </c>
@@ -72714,7 +72957,7 @@
         <v>-2.2850000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.036E-3</v>
       </c>
@@ -72827,7 +73070,7 @@
         <v>-2.4030000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.8799999999999999E-4</v>
       </c>
@@ -72940,7 +73183,7 @@
         <v>-2.4689999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.86E-4</v>
       </c>
@@ -73053,7 +73296,7 @@
         <v>-2.5149999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8.3900000000000001E-4</v>
       </c>
@@ -73166,7 +73409,7 @@
         <v>-2.7160000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.3090000000000001E-3</v>
       </c>
@@ -73279,7 +73522,7 @@
         <v>-2.7929999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.549E-3</v>
       </c>
@@ -73392,7 +73635,7 @@
         <v>-2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.65E-3</v>
       </c>
@@ -73505,7 +73748,7 @@
         <v>-3.0439999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.7979999999999999E-3</v>
       </c>
@@ -73618,7 +73861,7 @@
         <v>-3.0920000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.6249999999999999E-3</v>
       </c>
@@ -73731,7 +73974,7 @@
         <v>-3.1289999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.3569999999999999E-3</v>
       </c>
@@ -73844,7 +74087,7 @@
         <v>-3.107E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.286E-3</v>
       </c>
@@ -73957,7 +74200,7 @@
         <v>-3.0409999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.0449999999999999E-3</v>
       </c>
@@ -74070,7 +74313,7 @@
         <v>-3.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.0070000000000001E-3</v>
       </c>
@@ -74183,7 +74426,7 @@
         <v>-2.9450000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7.0699999999999995E-4</v>
       </c>
@@ -74296,7 +74539,7 @@
         <v>-2.8730000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7.8200000000000003E-4</v>
       </c>
@@ -74409,7 +74652,7 @@
         <v>-2.7690000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.9300000000000004E-4</v>
       </c>
@@ -74522,7 +74765,7 @@
         <v>-2.7109999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.6200000000000005E-4</v>
       </c>
@@ -74635,7 +74878,7 @@
         <v>-2.598E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7.8200000000000003E-4</v>
       </c>
@@ -74748,7 +74991,7 @@
         <v>-2.529E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8.1400000000000005E-4</v>
       </c>
@@ -74861,7 +75104,7 @@
         <v>-2.4629999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6.0599999999999998E-4</v>
       </c>
@@ -74974,7 +75217,7 @@
         <v>-2.3960000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4.6900000000000002E-4</v>
       </c>
@@ -75087,7 +75330,7 @@
         <v>-2.3340000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3.0600000000000001E-4</v>
       </c>
@@ -75200,7 +75443,7 @@
         <v>-2.3189999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.2799999999999999E-4</v>
       </c>
@@ -75313,7 +75556,7 @@
         <v>-2.2750000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.95E-4</v>
       </c>
@@ -75426,7 +75669,7 @@
         <v>-2.2209999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-4.6200000000000001E-4</v>
       </c>
@@ -75539,7 +75782,7 @@
         <v>-2.212E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-6.8000000000000005E-4</v>
       </c>
@@ -75652,7 +75895,7 @@
         <v>-2.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.034E-3</v>
       </c>
@@ -75765,7 +76008,7 @@
         <v>-2.134E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.5269999999999999E-3</v>
       </c>
@@ -75878,7 +76121,7 @@
         <v>-2.1559999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.707E-3</v>
       </c>
@@ -75991,7 +76234,7 @@
         <v>-2.0230000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.91E-3</v>
       </c>
@@ -76104,7 +76347,7 @@
         <v>-1.9419999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-2.2269999999999998E-3</v>
       </c>
@@ -76217,7 +76460,7 @@
         <v>-1.8779999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-2.5730000000000002E-3</v>
       </c>
@@ -76330,7 +76573,7 @@
         <v>-1.8879999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-2.7959999999999999E-3</v>
       </c>
@@ -76443,7 +76686,7 @@
         <v>-1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-2.8730000000000001E-3</v>
       </c>
@@ -76556,7 +76799,7 @@
         <v>-1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-3.3939999999999999E-3</v>
       </c>
@@ -76669,7 +76912,7 @@
         <v>-1.6980000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-3.5720000000000001E-3</v>
       </c>
@@ -76782,7 +77025,7 @@
         <v>-1.7080000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-3.7230000000000002E-3</v>
       </c>
@@ -76895,7 +77138,7 @@
         <v>-1.7179999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-3.9129999999999998E-3</v>
       </c>
@@ -77008,7 +77251,7 @@
         <v>-1.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-3.5739999999999999E-3</v>
       </c>
@@ -77121,7 +77364,7 @@
         <v>-1.5269999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-3.4689999999999999E-3</v>
       </c>
@@ -77234,7 +77477,7 @@
         <v>-1.6169999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-3.6600000000000001E-3</v>
       </c>
@@ -77347,7 +77590,7 @@
         <v>-1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-3.7330000000000002E-3</v>
       </c>
@@ -77460,7 +77703,7 @@
         <v>-1.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -77590,9 +77833,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>6.0897E-2</v>
       </c>
@@ -77705,7 +77948,7 @@
         <v>-1.9911000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.2018000000000002E-2</v>
       </c>
@@ -77818,7 +78061,7 @@
         <v>-1.7957000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.7570000000000001E-2</v>
       </c>
@@ -77931,7 +78174,7 @@
         <v>-1.3519E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.9024999999999997E-2</v>
       </c>
@@ -78044,7 +78287,7 @@
         <v>-1.1037E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.3345E-2</v>
       </c>
@@ -78157,7 +78400,7 @@
         <v>-9.9810000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.7323E-2</v>
       </c>
@@ -78270,7 +78513,7 @@
         <v>-8.3540000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.3375E-2</v>
       </c>
@@ -78383,7 +78626,7 @@
         <v>-6.0850000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.7595E-2</v>
       </c>
@@ -78496,7 +78739,7 @@
         <v>-5.0590000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.5472E-2</v>
       </c>
@@ -78609,7 +78852,7 @@
         <v>-3.7209999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.0949E-2</v>
       </c>
@@ -78722,7 +78965,7 @@
         <v>-3.5209999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.2219999999999993E-3</v>
       </c>
@@ -78835,7 +79078,7 @@
         <v>-2.637E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.2830000000000004E-3</v>
       </c>
@@ -78948,7 +79191,7 @@
         <v>-2.3679999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.5530000000000002E-3</v>
       </c>
@@ -79061,7 +79304,7 @@
         <v>-1.64E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.8709999999999999E-3</v>
       </c>
@@ -79174,7 +79417,7 @@
         <v>-1.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-2.7300000000000002E-4</v>
       </c>
@@ -79287,7 +79530,7 @@
         <v>-1.266E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.358E-3</v>
       </c>
@@ -79400,7 +79643,7 @@
         <v>-8.83E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.4890000000000001E-3</v>
       </c>
@@ -79513,7 +79756,7 @@
         <v>-6.1700000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-2.9399999999999999E-3</v>
       </c>
@@ -79626,7 +79869,7 @@
         <v>-5.8600000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.346E-3</v>
       </c>
@@ -79739,7 +79982,7 @@
         <v>-3.88E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-4.078E-3</v>
       </c>
@@ -79852,7 +80095,7 @@
         <v>-3.4400000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.1070000000000004E-3</v>
       </c>
@@ -79965,7 +80208,7 @@
         <v>-3.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-4.7629999999999999E-3</v>
       </c>
@@ -80078,7 +80321,7 @@
         <v>-8.6000000000000003E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.6930000000000001E-3</v>
       </c>
@@ -80191,7 +80434,7 @@
         <v>-4.6E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-5.8609999999999999E-3</v>
       </c>
@@ -80304,7 +80547,7 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-5.4380000000000001E-3</v>
       </c>
@@ -80417,7 +80660,7 @@
         <v>2.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-5.8989999999999997E-3</v>
       </c>
@@ -80530,7 +80773,7 @@
         <v>1.6899999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-6.208E-3</v>
       </c>
@@ -80643,7 +80886,7 @@
         <v>3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-6.1330000000000004E-3</v>
       </c>
@@ -80756,7 +80999,7 @@
         <v>5.1199999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-6.6750000000000004E-3</v>
       </c>
@@ -80869,7 +81112,7 @@
         <v>3.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-7.0679999999999996E-3</v>
       </c>
@@ -80982,7 +81225,7 @@
         <v>4.84E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-6.9100000000000003E-3</v>
       </c>
@@ -81095,7 +81338,7 @@
         <v>5.3200000000000003E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-7.4700000000000001E-3</v>
       </c>
@@ -81208,7 +81451,7 @@
         <v>5.2800000000000004E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-7.3489999999999996E-3</v>
       </c>
@@ -81321,7 +81564,7 @@
         <v>4.9899999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-7.4440000000000001E-3</v>
       </c>
@@ -81434,7 +81677,7 @@
         <v>4.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-7.5440000000000004E-3</v>
       </c>
@@ -81547,7 +81790,7 @@
         <v>4.8500000000000003E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-7.6689999999999996E-3</v>
       </c>
@@ -81660,7 +81903,7 @@
         <v>2.5500000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-7.4879999999999999E-3</v>
       </c>
@@ -81773,7 +82016,7 @@
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-4.7850000000000002E-3</v>
       </c>
@@ -81886,7 +82129,7 @@
         <v>-7.2599999999999997E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-4.3819999999999996E-3</v>
       </c>
@@ -81999,7 +82242,7 @@
         <v>-6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-4.4039999999999999E-3</v>
       </c>
@@ -82112,7 +82355,7 @@
         <v>-7.3700000000000002E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-4.6059999999999999E-3</v>
       </c>
@@ -82225,7 +82468,7 @@
         <v>-5.0500000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-4.7369999999999999E-3</v>
       </c>
@@ -82338,7 +82581,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-4.6800000000000001E-3</v>
       </c>
@@ -82451,7 +82694,7 @@
         <v>-5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-4.7590000000000002E-3</v>
       </c>
@@ -82564,7 +82807,7 @@
         <v>-4.4200000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-4.6610000000000002E-3</v>
       </c>
@@ -82677,7 +82920,7 @@
         <v>-4.46E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-4.8199999999999996E-3</v>
       </c>
@@ -82790,7 +83033,7 @@
         <v>-3.5500000000000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-4.8079999999999998E-3</v>
       </c>
@@ -82903,7 +83146,7 @@
         <v>-3.1599999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-4.8770000000000003E-3</v>
       </c>
@@ -83016,7 +83259,7 @@
         <v>-2.9100000000000003E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-5.0569999999999999E-3</v>
       </c>
@@ -83129,7 +83372,7 @@
         <v>-2.24E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-4.7990000000000003E-3</v>
       </c>
@@ -83242,7 +83485,7 @@
         <v>-1.44E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-4.8690000000000001E-3</v>
       </c>
@@ -83355,7 +83598,7 @@
         <v>-1.7899999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-5.0400000000000002E-3</v>
       </c>
@@ -83468,7 +83711,7 @@
         <v>-2.14E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-5.1720000000000004E-3</v>
       </c>
@@ -83581,7 +83824,7 @@
         <v>-1.08E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-5.189E-3</v>
       </c>
@@ -83694,7 +83937,7 @@
         <v>-1.75E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-5.7850000000000002E-3</v>
       </c>
@@ -83807,7 +84050,7 @@
         <v>-2.2900000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-6.267E-3</v>
       </c>
@@ -83920,7 +84163,7 @@
         <v>-1.73E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-6.5579999999999996E-3</v>
       </c>
@@ -84033,7 +84276,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-6.509E-3</v>
       </c>
@@ -84146,7 +84389,7 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-6.6259999999999999E-3</v>
       </c>
@@ -84259,7 +84502,7 @@
         <v>-2.2699999999999999E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-6.7359999999999998E-3</v>
       </c>
@@ -84372,7 +84615,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-6.2560000000000003E-3</v>
       </c>
@@ -84485,7 +84728,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-5.7759999999999999E-3</v>
       </c>
@@ -84598,7 +84841,7 @@
         <v>-1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-6.0239999999999998E-3</v>
       </c>
@@ -84711,7 +84954,7 @@
         <v>-3.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-5.8950000000000001E-3</v>
       </c>
@@ -84824,7 +85067,7 @@
         <v>-3.39E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-5.731E-3</v>
       </c>
@@ -84937,7 +85180,7 @@
         <v>-2.4600000000000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.1469999999999997E-3</v>
       </c>
@@ -85050,7 +85293,7 @@
         <v>-4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-5.9959999999999996E-3</v>
       </c>
@@ -85163,7 +85406,7 @@
         <v>-2.3499999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-6.0270000000000002E-3</v>
       </c>
@@ -85276,7 +85519,7 @@
         <v>-3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-5.8529999999999997E-3</v>
       </c>
@@ -85389,7 +85632,7 @@
         <v>-1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-6.463E-3</v>
       </c>
@@ -85502,7 +85745,7 @@
         <v>-2.9399999999999999E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-6.5849999999999997E-3</v>
       </c>
@@ -85615,7 +85858,7 @@
         <v>-1.8900000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-6.7669999999999996E-3</v>
       </c>
@@ -85728,7 +85971,7 @@
         <v>-2.32E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-6.6680000000000003E-3</v>
       </c>
@@ -85841,7 +86084,7 @@
         <v>-1.54E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-6.6179999999999998E-3</v>
       </c>
@@ -85954,7 +86197,7 @@
         <v>-2.33E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-6.8960000000000002E-3</v>
       </c>
@@ -86067,7 +86310,7 @@
         <v>-2.3599999999999999E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-7.5009999999999999E-3</v>
       </c>
@@ -86180,7 +86423,7 @@
         <v>-3.21E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-6.4009999999999996E-3</v>
       </c>
@@ -86293,7 +86536,7 @@
         <v>-2.03E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-6.3870000000000003E-3</v>
       </c>
@@ -86406,7 +86649,7 @@
         <v>-2.22E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-6.4689999999999999E-3</v>
       </c>
@@ -86519,7 +86762,7 @@
         <v>-4.0099999999999999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-6.803E-3</v>
       </c>
@@ -86632,7 +86875,7 @@
         <v>-5.2300000000000003E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-5.8910000000000004E-3</v>
       </c>
@@ -86745,7 +86988,7 @@
         <v>-4.3800000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-6.3080000000000002E-3</v>
       </c>
